--- a/test/geometry_VV.xlsx
+++ b/test/geometry_VV.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" activeTab="2"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="55">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -160,102 +160,24 @@
     <t>NOTE:  positive offset = outside body;   negative offset = inside body</t>
   </si>
   <si>
-    <t>TTC-earth</t>
-  </si>
-  <si>
-    <t>z+</t>
-  </si>
-  <si>
-    <t>y-</t>
-  </si>
-  <si>
-    <t>Worst case for now. Better:side view for area, rotate behind/front of body for other pointing, but will never present full s/a</t>
-  </si>
-  <si>
-    <t>TTC-nadir</t>
-  </si>
-  <si>
-    <t>z-</t>
-  </si>
-  <si>
-    <t>gimbal</t>
-  </si>
-  <si>
-    <t>sa1</t>
-  </si>
-  <si>
     <t>x+</t>
   </si>
   <si>
-    <t>circular s/a will only rotate about radius axis</t>
-  </si>
-  <si>
-    <t>sa2</t>
-  </si>
-  <si>
-    <t>x-</t>
-  </si>
-  <si>
     <t>moi</t>
   </si>
   <si>
-    <t>fuel1</t>
-  </si>
-  <si>
     <t>see sub_output</t>
   </si>
   <si>
-    <t>fuel2</t>
-  </si>
-  <si>
     <t>y+</t>
   </si>
   <si>
-    <t>fuel3</t>
-  </si>
-  <si>
-    <t>fuel4</t>
-  </si>
-  <si>
     <t>loc</t>
   </si>
   <si>
     <t>att1</t>
   </si>
   <si>
-    <t>att2</t>
-  </si>
-  <si>
-    <t>att3</t>
-  </si>
-  <si>
-    <t>att4</t>
-  </si>
-  <si>
-    <t>att5</t>
-  </si>
-  <si>
-    <t>att6</t>
-  </si>
-  <si>
-    <t>att7</t>
-  </si>
-  <si>
-    <t>att8</t>
-  </si>
-  <si>
-    <t>att9</t>
-  </si>
-  <si>
-    <t>att10</t>
-  </si>
-  <si>
-    <t>att11</t>
-  </si>
-  <si>
-    <t>att12</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -269,39 +191,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>p11</t>
   </si>
 </sst>
 </file>
@@ -937,7 +826,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,88 +873,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>0.5</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-      <c r="F2">
-        <f>'Calculations Rough Input'!H10</f>
-        <v>45.3</v>
-      </c>
-      <c r="G2">
-        <f>1.5*1.5</f>
-        <v>2.25</v>
-      </c>
-      <c r="H2">
-        <v>94.375</v>
-      </c>
-      <c r="I2">
-        <v>102.868749999999</v>
-      </c>
-      <c r="J2">
-        <v>8.4937500000000004</v>
-      </c>
-      <c r="K2">
-        <f>SQRT(D2^2 + E2^2)</f>
-        <v>0.90138781886599728</v>
-      </c>
-      <c r="L2" t="s">
-        <v>47</v>
-      </c>
+      <c r="A2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>'Calculations Rough Input'!L10</f>
-        <v>11.6</v>
-      </c>
-      <c r="G3">
-        <f>0.42*0.5</f>
-        <v>0.21</v>
-      </c>
+      <c r="A3"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>45</v>
-      </c>
+      <c r="A4"/>
       <c r="L4" s="2"/>
     </row>
   </sheetData>
@@ -1077,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,208 +934,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3">
-        <v>1.2</v>
-      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>210</v>
-      </c>
-      <c r="G2" s="3">
-        <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <f>H2</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <f>I2</f>
-        <v>0</v>
-      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <f>D2</f>
-        <v>1.2</v>
-      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
-      <c r="F3" s="3">
-        <v>210</v>
-      </c>
-      <c r="G3" s="3">
-        <f>G2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H3" s="3">
-        <f>H2</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <f>I2</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <f>J2</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <f>K2</f>
-        <v>0</v>
-      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">D3</f>
-        <v>1.2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>210</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>1.2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>210</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <f>D5+2.5</f>
-        <v>3.7</v>
-      </c>
-      <c r="F6" s="3">
-        <v>210</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7">
-        <f>D6</f>
-        <v>3.7</v>
-      </c>
-      <c r="F7" s="3">
-        <v>210</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="1">D7</f>
-        <v>3.7</v>
-      </c>
-      <c r="F8" s="3">
-        <v>210</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="F9" s="3">
-        <v>210</v>
-      </c>
+      <c r="B9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10">
-        <f>D9+2.5</f>
-        <v>6.2</v>
-      </c>
-      <c r="F10" s="3">
-        <v>210</v>
-      </c>
+      <c r="B10" s="3"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="3">
-        <f>D10</f>
-        <v>6.2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>210</v>
-      </c>
+      <c r="B11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3">
-        <f>D11</f>
-        <v>6.2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>210</v>
-      </c>
+      <c r="B12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1333,7 +1012,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,86 +1055,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2">
-        <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6038041708720969</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>'Calculations Rough Input'!D$4/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="G2">
-        <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H2">
-        <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="I2">
-        <f>H2</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="J2">
-        <f>I2</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="K2">
-        <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6038041708720969</v>
-      </c>
-      <c r="L2" t="s">
-        <v>53</v>
-      </c>
-    </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
-        <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6038041708720969</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>'Calculations Rough Input'!D$4/2</f>
-        <v>12.5</v>
-      </c>
-      <c r="G3">
-        <f>G2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H3">
-        <f>H2</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="I3">
-        <f>I2</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="J3">
-        <f>J2</f>
-        <v>15.684667115741885</v>
-      </c>
-      <c r="K3">
-        <f>K2</f>
-        <v>1.6038041708720969</v>
-      </c>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1472,7 +1072,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,94 +1103,26 @@
         <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>-0.35</v>
-      </c>
-      <c r="E2">
-        <v>-0.35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>58</v>
-      </c>
+      <c r="F2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>-0.35</v>
-      </c>
-      <c r="E3">
-        <v>-0.35</v>
-      </c>
-      <c r="F3" t="s">
-        <v>58</v>
-      </c>
+      <c r="F3"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>-0.35</v>
-      </c>
-      <c r="E4">
-        <v>-0.35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>58</v>
-      </c>
+      <c r="F4"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>-0.35</v>
-      </c>
-      <c r="E5">
-        <v>-0.35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>58</v>
-      </c>
+      <c r="F5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,10 +1132,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1625,7 +1157,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -1634,7 +1166,7 @@
         <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>43</v>
@@ -1642,13 +1174,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1657,267 +1189,18 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J3" s="2"/>
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1927,10 +1210,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1946,27 +1229,27 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1976,262 +1259,6 @@
       </c>
       <c r="F2">
         <v>0</v>
-      </c>
-      <c r="G2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>-1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2252,7 +1279,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
